--- a/Proyectos/2015/12/P1371 - RNCNOM, 2HR, Javier Zamora_OC/Planeación/Plan de Proyecto.xlsx
+++ b/Proyectos/2015/12/P1371 - RNCNOM, 2HR, Javier Zamora_OC/Planeación/Plan de Proyecto.xlsx
@@ -1567,6 +1567,12 @@
     <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1579,15 +1585,15 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1618,12 +1624,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2632,7 +2632,7 @@
   <dimension ref="A1:AMH9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="22.5" x14ac:dyDescent="0.3"/>
@@ -2663,11 +2663,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
     </row>
     <row r="2" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2682,62 +2682,62 @@
       <c r="A3" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="129" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="127"/>
+      <c r="C3" s="129"/>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="127"/>
+      <c r="C4" s="129"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="127"/>
+      <c r="C6" s="129"/>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="126">
+      <c r="B7" s="128">
         <v>42347</v>
       </c>
-      <c r="C7" s="126"/>
+      <c r="C7" s="128"/>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="127"/>
+      <c r="C8" s="129"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="126">
+      <c r="B9" s="128">
         <v>42347</v>
       </c>
-      <c r="C9" s="126"/>
+      <c r="C9" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2759,7 +2759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3810,10 +3810,10 @@
       <c r="AMI1"/>
     </row>
     <row r="2" spans="1:1023" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="128"/>
+      <c r="B2" s="130"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -4857,42 +4857,42 @@
       <c r="D4"/>
     </row>
     <row r="5" spans="1:1023" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="128"/>
+      <c r="B5" s="130"/>
       <c r="C5"/>
       <c r="D5"/>
     </row>
     <row r="6" spans="1:1023" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="133"/>
+      <c r="B6" s="132"/>
       <c r="C6"/>
       <c r="D6"/>
     </row>
     <row r="7" spans="1:1023" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="128"/>
+      <c r="B7" s="130"/>
       <c r="C7"/>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:1023" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="127"/>
+      <c r="B8" s="129"/>
       <c r="C8"/>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:1023" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="128"/>
+      <c r="B9" s="130"/>
       <c r="C9"/>
       <c r="D9"/>
     </row>
@@ -4933,12 +4933,12 @@
       <c r="D13"/>
     </row>
     <row r="14" spans="1:1023" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
     </row>
     <row r="15" spans="1:1023" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
@@ -4961,7 +4961,7 @@
       <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="144">
+      <c r="C16" s="126">
         <v>42347</v>
       </c>
       <c r="D16" s="116">
@@ -4975,7 +4975,7 @@
       <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="144">
+      <c r="C17" s="126">
         <v>42347</v>
       </c>
       <c r="D17" s="7">
@@ -5018,10 +5018,10 @@
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="128" t="s">
+      <c r="A23" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="128"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="59.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -5032,50 +5032,45 @@
       <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="128" t="s">
+      <c r="A25" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="128"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="53.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="131" t="s">
+      <c r="A26" s="134" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="131"/>
+      <c r="B26" s="134"/>
       <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="128" t="s">
+      <c r="A27" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="128"/>
+      <c r="B27" s="130"/>
     </row>
     <row r="28" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="130" t="s">
+      <c r="A28" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="131"/>
+      <c r="B28" s="134"/>
     </row>
     <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="128" t="s">
+      <c r="A29" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="128"/>
+      <c r="B29" s="130"/>
     </row>
     <row r="30" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="132" t="s">
+      <c r="A30" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="132"/>
+      <c r="B30" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -5085,6 +5080,11 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
@@ -5136,13 +5136,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
@@ -20633,13 +20633,13 @@
       <c r="E20"/>
     </row>
     <row r="21" spans="1:1024" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
     </row>
     <row r="22" spans="1:1024" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22"/>
@@ -21884,13 +21884,13 @@
       <c r="AMI1"/>
     </row>
     <row r="2" spans="1:1023" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -25110,15 +25110,15 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -26387,30 +26387,30 @@
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024" s="47" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="IR2" s="140" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="IR2" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="IS2" s="140"/>
-      <c r="IT2" s="140"/>
-      <c r="IU2" s="140"/>
-      <c r="IV2" s="140"/>
-      <c r="IW2" s="140"/>
-      <c r="IX2" s="140"/>
-      <c r="IY2" s="140"/>
-      <c r="IZ2" s="140"/>
-      <c r="JA2" s="140"/>
+      <c r="IS2" s="142"/>
+      <c r="IT2" s="142"/>
+      <c r="IU2" s="142"/>
+      <c r="IV2" s="142"/>
+      <c r="IW2" s="142"/>
+      <c r="IX2" s="142"/>
+      <c r="IY2" s="142"/>
+      <c r="IZ2" s="142"/>
+      <c r="JA2" s="142"/>
     </row>
     <row r="3" spans="1:1024" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
@@ -29641,7 +29641,7 @@
       <c r="G8" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="H8" s="145" t="s">
+      <c r="H8" s="127" t="s">
         <v>162</v>
       </c>
       <c r="I8" s="63" t="s">
@@ -29895,8 +29895,8 @@
       <c r="IQ8"/>
       <c r="IR8"/>
       <c r="IS8" s="66"/>
-      <c r="IT8" s="141"/>
-      <c r="IU8" s="141"/>
+      <c r="IT8" s="143"/>
+      <c r="IU8" s="143"/>
       <c r="IV8" s="67"/>
       <c r="IW8" s="68"/>
       <c r="IX8" s="68"/>
@@ -30943,7 +30943,7 @@
       <c r="IP9"/>
       <c r="IQ9"/>
       <c r="IR9"/>
-      <c r="IS9" s="142" t="s">
+      <c r="IS9" s="144" t="s">
         <v>80</v>
       </c>
       <c r="IT9" s="70" t="s">
@@ -31745,7 +31745,7 @@
       <c r="C10" s="60"/>
       <c r="D10" s="62"/>
       <c r="E10" s="60">
-        <f t="shared" ref="E7:E24" si="2">PRODUCT(C10:D10)</f>
+        <f t="shared" ref="E10:E24" si="2">PRODUCT(C10:D10)</f>
         <v>0</v>
       </c>
       <c r="F10" s="60"/>
@@ -31995,7 +31995,7 @@
       <c r="IP10"/>
       <c r="IQ10"/>
       <c r="IR10"/>
-      <c r="IS10" s="142"/>
+      <c r="IS10" s="144"/>
       <c r="IT10" s="70" t="s">
         <v>82</v>
       </c>
@@ -33045,7 +33045,7 @@
       <c r="IP11"/>
       <c r="IQ11"/>
       <c r="IR11"/>
-      <c r="IS11" s="142"/>
+      <c r="IS11" s="144"/>
       <c r="IT11" s="70" t="s">
         <v>83</v>
       </c>
@@ -34095,7 +34095,7 @@
       <c r="IP12"/>
       <c r="IQ12"/>
       <c r="IR12"/>
-      <c r="IS12" s="142"/>
+      <c r="IS12" s="144"/>
       <c r="IT12" s="70" t="s">
         <v>84</v>
       </c>
@@ -35145,7 +35145,7 @@
       <c r="IP13"/>
       <c r="IQ13"/>
       <c r="IR13"/>
-      <c r="IS13" s="142"/>
+      <c r="IS13" s="144"/>
       <c r="IT13" s="70" t="s">
         <v>83</v>
       </c>
@@ -38280,13 +38280,13 @@
       <c r="IS16" s="94"/>
       <c r="IT16" s="95"/>
       <c r="IU16" s="71"/>
-      <c r="IV16" s="143" t="s">
+      <c r="IV16" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="IW16" s="143"/>
-      <c r="IX16" s="143"/>
-      <c r="IY16" s="143"/>
-      <c r="IZ16" s="143"/>
+      <c r="IW16" s="145"/>
+      <c r="IX16" s="145"/>
+      <c r="IY16" s="145"/>
+      <c r="IZ16" s="145"/>
       <c r="JA16"/>
       <c r="JB16"/>
       <c r="JC16"/>
@@ -41372,10 +41372,10 @@
       <c r="IP19"/>
       <c r="IQ19"/>
       <c r="IR19"/>
-      <c r="IS19" s="137" t="s">
+      <c r="IS19" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="IT19" s="137"/>
+      <c r="IT19" s="139"/>
       <c r="IU19" s="99"/>
       <c r="IV19" s="99"/>
       <c r="IW19" s="99"/>
@@ -42410,13 +42410,13 @@
       </c>
       <c r="IT20" s="102"/>
       <c r="IU20" s="99"/>
-      <c r="IV20" s="138" t="s">
+      <c r="IV20" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="IW20" s="138"/>
-      <c r="IX20" s="138"/>
-      <c r="IY20" s="138"/>
-      <c r="IZ20" s="138"/>
+      <c r="IW20" s="140"/>
+      <c r="IX20" s="140"/>
+      <c r="IY20" s="140"/>
+      <c r="IZ20" s="140"/>
       <c r="JA20"/>
       <c r="JB20"/>
       <c r="JC20"/>
@@ -43445,13 +43445,13 @@
       </c>
       <c r="IT21" s="103"/>
       <c r="IU21" s="99"/>
-      <c r="IV21" s="138" t="s">
+      <c r="IV21" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="IW21" s="138"/>
-      <c r="IX21" s="138"/>
-      <c r="IY21" s="138"/>
-      <c r="IZ21" s="138"/>
+      <c r="IW21" s="140"/>
+      <c r="IX21" s="140"/>
+      <c r="IY21" s="140"/>
+      <c r="IZ21" s="140"/>
       <c r="JA21"/>
       <c r="JB21"/>
       <c r="JC21"/>
@@ -44480,13 +44480,13 @@
       </c>
       <c r="IT22" s="104"/>
       <c r="IU22" s="99"/>
-      <c r="IV22" s="138" t="s">
+      <c r="IV22" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="IW22" s="138"/>
-      <c r="IX22" s="138"/>
-      <c r="IY22" s="138"/>
-      <c r="IZ22" s="138"/>
+      <c r="IW22" s="140"/>
+      <c r="IX22" s="140"/>
+      <c r="IY22" s="140"/>
+      <c r="IZ22" s="140"/>
       <c r="JA22"/>
       <c r="JB22"/>
       <c r="JC22"/>
